--- a/Supplier-test-data-requests.xlsx
+++ b/Supplier-test-data-requests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masuk.kazi/NHS_LOGIN/cid-cli-tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B59BB8A-0465-3B48-A13A-B796479BE3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4186118-8394-B746-AD64-36A2ADB64760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20020" xr2:uid="{97BB2C39-846C-F647-9699-34EFE69D5A35}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20140" xr2:uid="{97BB2C39-846C-F647-9699-34EFE69D5A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>ext</t>
-  </si>
-  <si>
-    <t>User Profile Uplift Request</t>
   </si>
   <si>
     <t>Boolean</t>
@@ -373,6 +370,9 @@
   </si>
   <si>
     <t>GP Linkage Key provided by user's GP (Passphrase)</t>
+  </si>
+  <si>
+    <t>User Profile Uplift and Reset Proofing Levels Request</t>
   </si>
 </sst>
 </file>
@@ -917,25 +917,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -949,6 +940,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1346,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4780055B-0469-054C-88EA-412B2210B4A6}">
-  <dimension ref="B1:D42"/>
+  <dimension ref="B1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1358,28 +1358,29 @@
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B3" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="46"/>
     </row>
-    <row r="5" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B5" s="46" t="s">
         <v>21</v>
       </c>
@@ -1388,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
         <v>16</v>
       </c>
@@ -1400,63 +1401,63 @@
         <v>0</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B7" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="47">
         <f>COUNTA('Reset Proofing Levels'!B5:'Reset Proofing Levels'!B1088)</f>
         <v>0</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="46"/>
     </row>
-    <row r="9" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B9" s="45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="62"/>
-    </row>
-    <row r="15" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" spans="2:6" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="51"/>
       <c r="C15" s="52"/>
       <c r="D15" s="49"/>
     </row>
-    <row r="16" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="64"/>
+        <v>53</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="59"/>
     </row>
     <row r="17" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="51"/>
@@ -1467,10 +1468,10 @@
       <c r="B18" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="64"/>
+      <c r="C18" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="59"/>
     </row>
     <row r="19" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="51"/>
@@ -1481,10 +1482,10 @@
       <c r="B20" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="64"/>
+      <c r="C20" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="59"/>
     </row>
     <row r="21" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="51"/>
@@ -1495,10 +1496,10 @@
       <c r="B22" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="66"/>
+      <c r="C22" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="63"/>
     </row>
     <row r="23" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="51"/>
@@ -1509,10 +1510,10 @@
       <c r="B24" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="64"/>
+      <c r="C24" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="59"/>
     </row>
     <row r="25" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="51"/>
@@ -1521,12 +1522,12 @@
     </row>
     <row r="26" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="64"/>
+        <v>36</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="59"/>
     </row>
     <row r="27" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="51"/>
@@ -1537,10 +1538,10 @@
       <c r="B28" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="64"/>
+      <c r="C28" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="59"/>
     </row>
     <row r="29" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="51"/>
@@ -1551,10 +1552,10 @@
       <c r="B30" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="64"/>
+      <c r="C30" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="59"/>
     </row>
     <row r="31" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="51"/>
@@ -1565,10 +1566,10 @@
       <c r="B32" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="64"/>
+      <c r="C32" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="59"/>
     </row>
     <row r="33" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="51"/>
@@ -1577,12 +1578,12 @@
     </row>
     <row r="34" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="64"/>
+        <v>54</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="59"/>
     </row>
     <row r="35" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="51"/>
@@ -1593,10 +1594,10 @@
       <c r="B36" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="64"/>
+      <c r="C36" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="59"/>
     </row>
     <row r="37" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="51"/>
@@ -1607,10 +1608,10 @@
       <c r="B38" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="64"/>
+      <c r="C38" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="59"/>
     </row>
     <row r="39" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="51"/>
@@ -1621,10 +1622,10 @@
       <c r="B40" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="64"/>
+      <c r="C40" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="59"/>
     </row>
     <row r="41" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="51"/>
@@ -1633,15 +1634,14 @@
     </row>
     <row r="42" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="68"/>
+        <v>50</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="65"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3yVRTgGLYTR5F30B82GWyFDyQMAcU1oho3Zdxgexh23BbC64uDCKTcxmnLZ1vDH5zedeXspLWopz73qfkW8ueA==" saltValue="hRqOSdEOM4m+ICeP2z5NSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C42:D42"/>
@@ -1652,12 +1652,12 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C7">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
@@ -1722,40 +1722,40 @@
     <row r="2" spans="1:14" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B2" s="38"/>
       <c r="C2" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="27" t="s">
+      <c r="N2" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="13" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1784,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>6</v>
@@ -1817,7 +1817,7 @@
         <v>25569</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="10" t="b">
         <v>1</v>
@@ -5548,42 +5548,42 @@
     </row>
     <row r="2" spans="1:17" s="22" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="C2" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>46</v>
       </c>
       <c r="N2" s="29"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5621,7 +5621,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="31" t="s">
         <v>12</v>
@@ -5654,7 +5654,7 @@
         <v>25569</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="35" t="b">
         <v>1</v>
@@ -5674,11 +5674,11 @@
       <c r="M4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="59"/>
-      <c r="P4" s="60"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="68"/>
       <c r="Q4" s="36" t="b">
         <v>1</v>
       </c>
@@ -10848,7 +10848,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10857,7 +10857,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -12298,7 +12298,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/Supplier-test-data-requests.xlsx
+++ b/Supplier-test-data-requests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masuk.kazi/NHS_LOGIN/cid-cli-tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Amery\GitHubSource\cid-cli-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4186118-8394-B746-AD64-36A2ADB64760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EEFD22-5EEC-48F8-873C-8769F47E291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20140" xr2:uid="{97BB2C39-846C-F647-9699-34EFE69D5A35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{97BB2C39-846C-F647-9699-34EFE69D5A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -357,9 +357,6 @@
     <t>GP Connection Token provided by user's GP</t>
   </si>
   <si>
-    <t>v0.2.6</t>
-  </si>
-  <si>
     <t>Check if user has been created in NHS login</t>
   </si>
   <si>
@@ -374,12 +371,15 @@
   <si>
     <t>User Profile Uplift and Reset Proofing Levels Request</t>
   </si>
+  <si>
+    <t>v0.2.7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -763,7 +763,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -923,6 +923,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,12 +941,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,6 +949,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1348,39 +1351,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4780055B-0469-054C-88EA-412B2210B4A6}">
   <dimension ref="B1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.296875" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="42" customHeight="1">
       <c r="B1" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="2:6" ht="16.05" customHeight="1">
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="2:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="25.8">
       <c r="B3" s="45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="16.05" customHeight="1">
       <c r="B4" s="46"/>
     </row>
-    <row r="5" spans="2:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="25.8">
       <c r="B5" s="46" t="s">
         <v>21</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="25.8">
       <c r="B6" s="46" t="s">
         <v>16</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="25.8">
       <c r="B7" s="46" t="s">
         <v>51</v>
       </c>
@@ -1416,16 +1419,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="16.05" customHeight="1">
       <c r="B8" s="46"/>
     </row>
-    <row r="9" spans="2:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="25.8">
       <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="16.05" customHeight="1" thickBot="1"/>
+    <row r="11" spans="2:6" ht="26.4" thickBot="1">
       <c r="B11" s="56" t="s">
         <v>32</v>
       </c>
@@ -1436,21 +1439,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="25.05" customHeight="1">
       <c r="B14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="61"/>
-    </row>
-    <row r="15" spans="2:6" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="63"/>
+    </row>
+    <row r="15" spans="2:6" ht="4.95" customHeight="1">
       <c r="B15" s="51"/>
       <c r="C15" s="52"/>
       <c r="D15" s="49"/>
     </row>
-    <row r="16" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="25.05" customHeight="1">
       <c r="B16" s="53" t="s">
         <v>53</v>
       </c>
@@ -1459,12 +1462,12 @@
       </c>
       <c r="D16" s="59"/>
     </row>
-    <row r="17" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="4.95" customHeight="1">
       <c r="B17" s="51"/>
       <c r="C17" s="52"/>
       <c r="D17" s="49"/>
     </row>
-    <row r="18" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="25.05" customHeight="1">
       <c r="B18" s="53" t="s">
         <v>0</v>
       </c>
@@ -1473,12 +1476,12 @@
       </c>
       <c r="D18" s="59"/>
     </row>
-    <row r="19" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="4.95" customHeight="1">
       <c r="B19" s="51"/>
       <c r="C19" s="52"/>
       <c r="D19" s="49"/>
     </row>
-    <row r="20" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="25.05" customHeight="1">
       <c r="B20" s="53" t="s">
         <v>9</v>
       </c>
@@ -1487,26 +1490,26 @@
       </c>
       <c r="D20" s="59"/>
     </row>
-    <row r="21" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="4.95" customHeight="1">
       <c r="B21" s="51"/>
       <c r="C21" s="52"/>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="2:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="43.95" customHeight="1">
       <c r="B22" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="63"/>
-    </row>
-    <row r="23" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="65"/>
+    </row>
+    <row r="23" spans="2:4" ht="4.95" customHeight="1">
       <c r="B23" s="51"/>
       <c r="C23" s="52"/>
       <c r="D23" s="49"/>
     </row>
-    <row r="24" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="25.05" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>5</v>
       </c>
@@ -1515,12 +1518,12 @@
       </c>
       <c r="D24" s="59"/>
     </row>
-    <row r="25" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="4.95" customHeight="1">
       <c r="B25" s="51"/>
       <c r="C25" s="52"/>
       <c r="D25" s="49"/>
     </row>
-    <row r="26" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="25.05" customHeight="1">
       <c r="B26" s="53" t="s">
         <v>36</v>
       </c>
@@ -1529,12 +1532,12 @@
       </c>
       <c r="D26" s="59"/>
     </row>
-    <row r="27" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="4.95" customHeight="1">
       <c r="B27" s="51"/>
       <c r="C27" s="52"/>
       <c r="D27" s="49"/>
     </row>
-    <row r="28" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="25.05" customHeight="1">
       <c r="B28" s="53" t="s">
         <v>6</v>
       </c>
@@ -1543,12 +1546,12 @@
       </c>
       <c r="D28" s="59"/>
     </row>
-    <row r="29" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="4.95" customHeight="1">
       <c r="B29" s="51"/>
       <c r="C29" s="52"/>
       <c r="D29" s="49"/>
     </row>
-    <row r="30" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="25.05" customHeight="1">
       <c r="B30" s="53" t="s">
         <v>7</v>
       </c>
@@ -1557,26 +1560,26 @@
       </c>
       <c r="D30" s="59"/>
     </row>
-    <row r="31" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="4.95" customHeight="1">
       <c r="B31" s="51"/>
       <c r="C31" s="52"/>
       <c r="D31" s="49"/>
     </row>
-    <row r="32" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="25.05" customHeight="1">
       <c r="B32" s="53" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="59"/>
     </row>
-    <row r="33" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="4.95" customHeight="1">
       <c r="B33" s="51"/>
       <c r="C33" s="52"/>
       <c r="D33" s="49"/>
     </row>
-    <row r="34" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="25.05" customHeight="1">
       <c r="B34" s="53" t="s">
         <v>54</v>
       </c>
@@ -1585,12 +1588,12 @@
       </c>
       <c r="D34" s="59"/>
     </row>
-    <row r="35" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="4.95" customHeight="1">
       <c r="B35" s="51"/>
       <c r="C35" s="52"/>
       <c r="D35" s="49"/>
     </row>
-    <row r="36" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="25.05" customHeight="1">
       <c r="B36" s="53" t="s">
         <v>13</v>
       </c>
@@ -1599,50 +1602,56 @@
       </c>
       <c r="D36" s="59"/>
     </row>
-    <row r="37" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" ht="4.95" customHeight="1">
       <c r="B37" s="51"/>
       <c r="C37" s="52"/>
       <c r="D37" s="49"/>
     </row>
-    <row r="38" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="25.05" customHeight="1">
       <c r="B38" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="59"/>
     </row>
-    <row r="39" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="4.95" customHeight="1">
       <c r="B39" s="51"/>
       <c r="C39" s="52"/>
       <c r="D39" s="49"/>
     </row>
-    <row r="40" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="25.05" customHeight="1">
       <c r="B40" s="53" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="59"/>
     </row>
-    <row r="41" spans="2:4" ht="5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="4.95" customHeight="1">
       <c r="B41" s="51"/>
       <c r="C41" s="52"/>
       <c r="D41" s="49"/>
     </row>
-    <row r="42" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" ht="25.05" customHeight="1">
       <c r="B42" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="65"/>
+      <c r="D42" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C40:D40"/>
@@ -1652,12 +1661,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C7">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
@@ -1693,25 +1696,25 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.296875" customWidth="1"/>
+    <col min="2" max="2" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="26.69921875" customWidth="1"/>
     <col min="7" max="7" width="17" style="37" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.69921875" customWidth="1"/>
+    <col min="10" max="10" width="15.19921875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" customWidth="1"/>
-    <col min="14" max="14" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.69921875" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" customWidth="1"/>
+    <col min="14" max="14" width="46.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
@@ -1719,7 +1722,7 @@
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="31.2">
       <c r="B2" s="38"/>
       <c r="C2" s="23" t="s">
         <v>42</v>
@@ -1758,7 +1761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="13" customFormat="1" ht="16.95" customHeight="1">
       <c r="B3" s="40" t="s">
         <v>11</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -1859,7 +1862,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="18">
         <v>2</v>
       </c>
@@ -1877,7 +1880,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -1895,7 +1898,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="18">
         <v>4</v>
       </c>
@@ -1913,7 +1916,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="18">
         <v>5</v>
       </c>
@@ -1931,7 +1934,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="18">
         <v>6</v>
       </c>
@@ -1949,7 +1952,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="18">
         <v>7</v>
       </c>
@@ -1967,7 +1970,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="18">
         <v>8</v>
       </c>
@@ -1985,7 +1988,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="18">
         <v>9</v>
       </c>
@@ -2003,7 +2006,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="18">
         <v>10</v>
       </c>
@@ -2021,7 +2024,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="18">
         <v>11</v>
       </c>
@@ -2039,7 +2042,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="18">
         <v>12</v>
       </c>
@@ -2057,7 +2060,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="18">
         <v>13</v>
       </c>
@@ -2075,7 +2078,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="18">
         <v>14</v>
       </c>
@@ -2093,7 +2096,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="18">
         <v>15</v>
       </c>
@@ -2111,7 +2114,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="18">
         <v>16</v>
       </c>
@@ -2129,7 +2132,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="18">
         <v>17</v>
       </c>
@@ -2147,7 +2150,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="18">
         <v>18</v>
       </c>
@@ -2165,7 +2168,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="18">
         <v>19</v>
       </c>
@@ -2183,7 +2186,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="18">
         <v>20</v>
       </c>
@@ -2201,7 +2204,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="18">
         <v>21</v>
       </c>
@@ -2219,7 +2222,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="18">
         <v>22</v>
       </c>
@@ -2237,7 +2240,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="18">
         <v>23</v>
       </c>
@@ -2255,7 +2258,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="18">
         <v>24</v>
       </c>
@@ -2273,7 +2276,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="18">
         <v>25</v>
       </c>
@@ -2291,7 +2294,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="18">
         <v>26</v>
       </c>
@@ -2309,7 +2312,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="18">
         <v>27</v>
       </c>
@@ -2327,7 +2330,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="18">
         <v>28</v>
       </c>
@@ -2345,7 +2348,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="18">
         <v>29</v>
       </c>
@@ -2363,7 +2366,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="18">
         <v>30</v>
       </c>
@@ -2381,7 +2384,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="18">
         <v>31</v>
       </c>
@@ -2399,7 +2402,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="18">
         <v>32</v>
       </c>
@@ -2417,7 +2420,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="18">
         <v>33</v>
       </c>
@@ -2435,7 +2438,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="18">
         <v>34</v>
       </c>
@@ -2453,7 +2456,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="18">
         <v>35</v>
       </c>
@@ -2471,7 +2474,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="18">
         <v>36</v>
       </c>
@@ -2489,7 +2492,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="18">
         <v>37</v>
       </c>
@@ -2507,7 +2510,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="18">
         <v>38</v>
       </c>
@@ -2525,7 +2528,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="18">
         <v>39</v>
       </c>
@@ -2543,7 +2546,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="18">
         <v>40</v>
       </c>
@@ -2561,7 +2564,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="18">
         <v>41</v>
       </c>
@@ -2579,7 +2582,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="18">
         <v>42</v>
       </c>
@@ -2597,7 +2600,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="18">
         <v>43</v>
       </c>
@@ -2615,7 +2618,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="18">
         <v>44</v>
       </c>
@@ -2633,7 +2636,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="18">
         <v>45</v>
       </c>
@@ -2651,7 +2654,7 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="18">
         <v>46</v>
       </c>
@@ -2669,7 +2672,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="18">
         <v>47</v>
       </c>
@@ -2687,7 +2690,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="18">
         <v>48</v>
       </c>
@@ -2705,7 +2708,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="18">
         <v>49</v>
       </c>
@@ -2723,7 +2726,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="18">
         <v>50</v>
       </c>
@@ -2741,7 +2744,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="18">
         <v>51</v>
       </c>
@@ -2759,7 +2762,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="18">
         <v>52</v>
       </c>
@@ -2777,7 +2780,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="18">
         <v>53</v>
       </c>
@@ -2795,7 +2798,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="18">
         <v>54</v>
       </c>
@@ -2813,7 +2816,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="18">
         <v>55</v>
       </c>
@@ -2831,7 +2834,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="18">
         <v>56</v>
       </c>
@@ -2849,7 +2852,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="18">
         <v>57</v>
       </c>
@@ -2867,7 +2870,7 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="18">
         <v>58</v>
       </c>
@@ -2885,7 +2888,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="18">
         <v>59</v>
       </c>
@@ -2903,7 +2906,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="18">
         <v>60</v>
       </c>
@@ -2921,7 +2924,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="18">
         <v>61</v>
       </c>
@@ -2939,7 +2942,7 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="18">
         <v>62</v>
       </c>
@@ -2957,7 +2960,7 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="18">
         <v>63</v>
       </c>
@@ -2975,7 +2978,7 @@
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="18">
         <v>64</v>
       </c>
@@ -2993,7 +2996,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="18">
         <v>65</v>
       </c>
@@ -3011,7 +3014,7 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="18">
         <v>66</v>
       </c>
@@ -3029,7 +3032,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="18">
         <v>67</v>
       </c>
@@ -3047,7 +3050,7 @@
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="18">
         <v>68</v>
       </c>
@@ -3065,7 +3068,7 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="18">
         <v>69</v>
       </c>
@@ -3083,7 +3086,7 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="18">
         <v>70</v>
       </c>
@@ -3101,7 +3104,7 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" s="18">
         <v>71</v>
       </c>
@@ -3119,7 +3122,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" s="18">
         <v>72</v>
       </c>
@@ -3137,7 +3140,7 @@
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="A77" s="18">
         <v>73</v>
       </c>
@@ -3155,7 +3158,7 @@
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" s="18">
         <v>74</v>
       </c>
@@ -3173,7 +3176,7 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79" s="18">
         <v>75</v>
       </c>
@@ -3191,7 +3194,7 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="A80" s="18">
         <v>76</v>
       </c>
@@ -3209,7 +3212,7 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81" s="18">
         <v>77</v>
       </c>
@@ -3227,7 +3230,7 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14">
       <c r="A82" s="18">
         <v>78</v>
       </c>
@@ -3245,7 +3248,7 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14">
       <c r="A83" s="18">
         <v>79</v>
       </c>
@@ -3263,7 +3266,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14">
       <c r="A84" s="18">
         <v>80</v>
       </c>
@@ -3281,7 +3284,7 @@
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14">
       <c r="A85" s="18">
         <v>81</v>
       </c>
@@ -3299,7 +3302,7 @@
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14">
       <c r="A86" s="18">
         <v>82</v>
       </c>
@@ -3317,7 +3320,7 @@
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14">
       <c r="A87" s="18">
         <v>83</v>
       </c>
@@ -3335,7 +3338,7 @@
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14">
       <c r="A88" s="18">
         <v>84</v>
       </c>
@@ -3353,7 +3356,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14">
       <c r="A89" s="18">
         <v>85</v>
       </c>
@@ -3371,7 +3374,7 @@
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14">
       <c r="A90" s="18">
         <v>86</v>
       </c>
@@ -3389,7 +3392,7 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14">
       <c r="A91" s="18">
         <v>87</v>
       </c>
@@ -3407,7 +3410,7 @@
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14">
       <c r="A92" s="18">
         <v>88</v>
       </c>
@@ -3425,7 +3428,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14">
       <c r="A93" s="18">
         <v>89</v>
       </c>
@@ -3443,7 +3446,7 @@
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14">
       <c r="A94" s="18">
         <v>90</v>
       </c>
@@ -3461,7 +3464,7 @@
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14">
       <c r="A95" s="18">
         <v>91</v>
       </c>
@@ -3479,7 +3482,7 @@
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14">
       <c r="A96" s="18">
         <v>92</v>
       </c>
@@ -3497,7 +3500,7 @@
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14">
       <c r="A97" s="18">
         <v>93</v>
       </c>
@@ -3515,7 +3518,7 @@
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14">
       <c r="A98" s="18">
         <v>94</v>
       </c>
@@ -3533,7 +3536,7 @@
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14">
       <c r="A99" s="18">
         <v>95</v>
       </c>
@@ -3551,7 +3554,7 @@
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14">
       <c r="A100" s="18">
         <v>96</v>
       </c>
@@ -3569,7 +3572,7 @@
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14">
       <c r="A101" s="18">
         <v>97</v>
       </c>
@@ -3587,7 +3590,7 @@
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14">
       <c r="A102" s="18">
         <v>98</v>
       </c>
@@ -3605,7 +3608,7 @@
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14">
       <c r="A103" s="18">
         <v>99</v>
       </c>
@@ -3623,7 +3626,7 @@
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14">
       <c r="A104" s="18">
         <v>100</v>
       </c>
@@ -3641,7 +3644,7 @@
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14">
       <c r="A105" s="18">
         <v>101</v>
       </c>
@@ -3659,7 +3662,7 @@
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14">
       <c r="A106" s="18">
         <v>102</v>
       </c>
@@ -3677,7 +3680,7 @@
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14">
       <c r="A107" s="18">
         <v>103</v>
       </c>
@@ -3695,7 +3698,7 @@
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14">
       <c r="A108" s="18">
         <v>104</v>
       </c>
@@ -3713,7 +3716,7 @@
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14">
       <c r="A109" s="18">
         <v>105</v>
       </c>
@@ -3731,7 +3734,7 @@
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14">
       <c r="A110" s="18">
         <v>106</v>
       </c>
@@ -3749,7 +3752,7 @@
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14">
       <c r="A111" s="18">
         <v>107</v>
       </c>
@@ -3767,7 +3770,7 @@
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14">
       <c r="A112" s="18">
         <v>108</v>
       </c>
@@ -3785,7 +3788,7 @@
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14">
       <c r="A113" s="18">
         <v>109</v>
       </c>
@@ -3803,7 +3806,7 @@
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14">
       <c r="A114" s="18">
         <v>110</v>
       </c>
@@ -3821,7 +3824,7 @@
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14">
       <c r="A115" s="18">
         <v>111</v>
       </c>
@@ -3839,7 +3842,7 @@
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14">
       <c r="A116" s="18">
         <v>112</v>
       </c>
@@ -3857,7 +3860,7 @@
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14">
       <c r="A117" s="18">
         <v>113</v>
       </c>
@@ -3875,7 +3878,7 @@
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14">
       <c r="A118" s="18">
         <v>114</v>
       </c>
@@ -3893,7 +3896,7 @@
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14">
       <c r="A119" s="18">
         <v>115</v>
       </c>
@@ -3911,7 +3914,7 @@
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14">
       <c r="A120" s="18">
         <v>116</v>
       </c>
@@ -3929,7 +3932,7 @@
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14">
       <c r="A121" s="18">
         <v>117</v>
       </c>
@@ -3947,7 +3950,7 @@
       <c r="M121" s="9"/>
       <c r="N121" s="9"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14">
       <c r="A122" s="18">
         <v>118</v>
       </c>
@@ -3965,7 +3968,7 @@
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14">
       <c r="A123" s="18">
         <v>119</v>
       </c>
@@ -3983,7 +3986,7 @@
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14">
       <c r="A124" s="18">
         <v>120</v>
       </c>
@@ -4001,7 +4004,7 @@
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14">
       <c r="A125" s="18">
         <v>121</v>
       </c>
@@ -4019,7 +4022,7 @@
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14">
       <c r="A126" s="18">
         <v>122</v>
       </c>
@@ -4037,7 +4040,7 @@
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14">
       <c r="A127" s="18">
         <v>123</v>
       </c>
@@ -4055,7 +4058,7 @@
       <c r="M127" s="9"/>
       <c r="N127" s="9"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14">
       <c r="A128" s="18">
         <v>124</v>
       </c>
@@ -4073,7 +4076,7 @@
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14">
       <c r="A129" s="18">
         <v>125</v>
       </c>
@@ -4091,7 +4094,7 @@
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14">
       <c r="A130" s="18">
         <v>126</v>
       </c>
@@ -4109,7 +4112,7 @@
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14">
       <c r="A131" s="18">
         <v>127</v>
       </c>
@@ -4127,7 +4130,7 @@
       <c r="M131" s="9"/>
       <c r="N131" s="9"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14">
       <c r="A132" s="18">
         <v>128</v>
       </c>
@@ -4145,7 +4148,7 @@
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14">
       <c r="A133" s="18">
         <v>129</v>
       </c>
@@ -4163,7 +4166,7 @@
       <c r="M133" s="9"/>
       <c r="N133" s="9"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14">
       <c r="A134" s="18">
         <v>130</v>
       </c>
@@ -4181,7 +4184,7 @@
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14">
       <c r="A135" s="18">
         <v>131</v>
       </c>
@@ -4199,7 +4202,7 @@
       <c r="M135" s="9"/>
       <c r="N135" s="9"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14">
       <c r="A136" s="18">
         <v>132</v>
       </c>
@@ -4217,7 +4220,7 @@
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14">
       <c r="A137" s="18">
         <v>133</v>
       </c>
@@ -4235,7 +4238,7 @@
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14">
       <c r="A138" s="18">
         <v>134</v>
       </c>
@@ -4253,7 +4256,7 @@
       <c r="M138" s="9"/>
       <c r="N138" s="9"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14">
       <c r="A139" s="18">
         <v>135</v>
       </c>
@@ -4271,7 +4274,7 @@
       <c r="M139" s="9"/>
       <c r="N139" s="9"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14">
       <c r="A140" s="18">
         <v>136</v>
       </c>
@@ -4289,7 +4292,7 @@
       <c r="M140" s="9"/>
       <c r="N140" s="9"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14">
       <c r="A141" s="18">
         <v>137</v>
       </c>
@@ -4307,7 +4310,7 @@
       <c r="M141" s="9"/>
       <c r="N141" s="9"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14">
       <c r="A142" s="18">
         <v>138</v>
       </c>
@@ -4325,7 +4328,7 @@
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14">
       <c r="A143" s="18">
         <v>139</v>
       </c>
@@ -4343,7 +4346,7 @@
       <c r="M143" s="9"/>
       <c r="N143" s="9"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14">
       <c r="A144" s="18">
         <v>140</v>
       </c>
@@ -4361,7 +4364,7 @@
       <c r="M144" s="9"/>
       <c r="N144" s="9"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14">
       <c r="A145" s="18">
         <v>141</v>
       </c>
@@ -4379,7 +4382,7 @@
       <c r="M145" s="9"/>
       <c r="N145" s="9"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14">
       <c r="A146" s="18">
         <v>142</v>
       </c>
@@ -4397,7 +4400,7 @@
       <c r="M146" s="9"/>
       <c r="N146" s="9"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14">
       <c r="A147" s="18">
         <v>143</v>
       </c>
@@ -4415,7 +4418,7 @@
       <c r="M147" s="9"/>
       <c r="N147" s="9"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14">
       <c r="A148" s="18">
         <v>144</v>
       </c>
@@ -4433,7 +4436,7 @@
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14">
       <c r="A149" s="18">
         <v>145</v>
       </c>
@@ -4451,7 +4454,7 @@
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14">
       <c r="A150" s="18">
         <v>146</v>
       </c>
@@ -4469,7 +4472,7 @@
       <c r="M150" s="9"/>
       <c r="N150" s="9"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14">
       <c r="A151" s="18">
         <v>147</v>
       </c>
@@ -4487,7 +4490,7 @@
       <c r="M151" s="9"/>
       <c r="N151" s="9"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14">
       <c r="A152" s="18">
         <v>148</v>
       </c>
@@ -4505,7 +4508,7 @@
       <c r="M152" s="9"/>
       <c r="N152" s="9"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14">
       <c r="A153" s="18">
         <v>149</v>
       </c>
@@ -4523,7 +4526,7 @@
       <c r="M153" s="9"/>
       <c r="N153" s="9"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14">
       <c r="A154" s="18">
         <v>150</v>
       </c>
@@ -4541,7 +4544,7 @@
       <c r="M154" s="9"/>
       <c r="N154" s="9"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14">
       <c r="A155" s="18">
         <v>151</v>
       </c>
@@ -4559,7 +4562,7 @@
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14">
       <c r="A156" s="18">
         <v>152</v>
       </c>
@@ -4577,7 +4580,7 @@
       <c r="M156" s="9"/>
       <c r="N156" s="9"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14">
       <c r="A157" s="18">
         <v>153</v>
       </c>
@@ -4595,7 +4598,7 @@
       <c r="M157" s="9"/>
       <c r="N157" s="9"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14">
       <c r="A158" s="18">
         <v>154</v>
       </c>
@@ -4613,7 +4616,7 @@
       <c r="M158" s="9"/>
       <c r="N158" s="9"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14">
       <c r="A159" s="18">
         <v>155</v>
       </c>
@@ -4631,7 +4634,7 @@
       <c r="M159" s="9"/>
       <c r="N159" s="9"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14">
       <c r="A160" s="18">
         <v>156</v>
       </c>
@@ -4649,7 +4652,7 @@
       <c r="M160" s="9"/>
       <c r="N160" s="9"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14">
       <c r="A161" s="18">
         <v>157</v>
       </c>
@@ -4667,7 +4670,7 @@
       <c r="M161" s="9"/>
       <c r="N161" s="9"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14">
       <c r="A162" s="18">
         <v>158</v>
       </c>
@@ -4685,7 +4688,7 @@
       <c r="M162" s="9"/>
       <c r="N162" s="9"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14">
       <c r="A163" s="18">
         <v>159</v>
       </c>
@@ -4703,7 +4706,7 @@
       <c r="M163" s="9"/>
       <c r="N163" s="9"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14">
       <c r="A164" s="18">
         <v>160</v>
       </c>
@@ -4721,7 +4724,7 @@
       <c r="M164" s="9"/>
       <c r="N164" s="9"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14">
       <c r="A165" s="18">
         <v>161</v>
       </c>
@@ -4739,7 +4742,7 @@
       <c r="M165" s="9"/>
       <c r="N165" s="9"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14">
       <c r="A166" s="18">
         <v>162</v>
       </c>
@@ -4757,7 +4760,7 @@
       <c r="M166" s="9"/>
       <c r="N166" s="9"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14">
       <c r="A167" s="18">
         <v>163</v>
       </c>
@@ -4775,7 +4778,7 @@
       <c r="M167" s="9"/>
       <c r="N167" s="9"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14">
       <c r="A168" s="18">
         <v>164</v>
       </c>
@@ -4793,7 +4796,7 @@
       <c r="M168" s="9"/>
       <c r="N168" s="9"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14">
       <c r="A169" s="18">
         <v>165</v>
       </c>
@@ -4811,7 +4814,7 @@
       <c r="M169" s="9"/>
       <c r="N169" s="9"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14">
       <c r="A170" s="18">
         <v>166</v>
       </c>
@@ -4829,7 +4832,7 @@
       <c r="M170" s="9"/>
       <c r="N170" s="9"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14">
       <c r="A171" s="18">
         <v>167</v>
       </c>
@@ -4847,7 +4850,7 @@
       <c r="M171" s="9"/>
       <c r="N171" s="9"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14">
       <c r="A172" s="18">
         <v>168</v>
       </c>
@@ -4865,7 +4868,7 @@
       <c r="M172" s="9"/>
       <c r="N172" s="9"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14">
       <c r="A173" s="18">
         <v>169</v>
       </c>
@@ -4883,7 +4886,7 @@
       <c r="M173" s="9"/>
       <c r="N173" s="9"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14">
       <c r="A174" s="18">
         <v>170</v>
       </c>
@@ -4901,7 +4904,7 @@
       <c r="M174" s="9"/>
       <c r="N174" s="9"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14">
       <c r="A175" s="18">
         <v>171</v>
       </c>
@@ -4919,7 +4922,7 @@
       <c r="M175" s="9"/>
       <c r="N175" s="9"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14">
       <c r="A176" s="18">
         <v>172</v>
       </c>
@@ -4937,7 +4940,7 @@
       <c r="M176" s="9"/>
       <c r="N176" s="9"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14">
       <c r="A177" s="18">
         <v>173</v>
       </c>
@@ -4955,7 +4958,7 @@
       <c r="M177" s="9"/>
       <c r="N177" s="9"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14">
       <c r="A178" s="18">
         <v>174</v>
       </c>
@@ -4973,7 +4976,7 @@
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14">
       <c r="A179" s="18">
         <v>175</v>
       </c>
@@ -4991,7 +4994,7 @@
       <c r="M179" s="9"/>
       <c r="N179" s="9"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14">
       <c r="A180" s="18">
         <v>176</v>
       </c>
@@ -5009,7 +5012,7 @@
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14">
       <c r="A181" s="18">
         <v>177</v>
       </c>
@@ -5027,7 +5030,7 @@
       <c r="M181" s="9"/>
       <c r="N181" s="9"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14">
       <c r="A182" s="18">
         <v>178</v>
       </c>
@@ -5045,7 +5048,7 @@
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14">
       <c r="A183" s="18">
         <v>179</v>
       </c>
@@ -5063,7 +5066,7 @@
       <c r="M183" s="9"/>
       <c r="N183" s="9"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14">
       <c r="A184" s="18">
         <v>180</v>
       </c>
@@ -5081,7 +5084,7 @@
       <c r="M184" s="9"/>
       <c r="N184" s="9"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14">
       <c r="A185" s="18">
         <v>181</v>
       </c>
@@ -5099,7 +5102,7 @@
       <c r="M185" s="9"/>
       <c r="N185" s="9"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14">
       <c r="A186" s="18">
         <v>182</v>
       </c>
@@ -5117,7 +5120,7 @@
       <c r="M186" s="9"/>
       <c r="N186" s="9"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14">
       <c r="A187" s="18">
         <v>183</v>
       </c>
@@ -5135,7 +5138,7 @@
       <c r="M187" s="9"/>
       <c r="N187" s="9"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14">
       <c r="A188" s="18">
         <v>184</v>
       </c>
@@ -5153,7 +5156,7 @@
       <c r="M188" s="9"/>
       <c r="N188" s="9"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14">
       <c r="A189" s="18">
         <v>185</v>
       </c>
@@ -5171,7 +5174,7 @@
       <c r="M189" s="9"/>
       <c r="N189" s="9"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14">
       <c r="A190" s="18">
         <v>186</v>
       </c>
@@ -5189,7 +5192,7 @@
       <c r="M190" s="9"/>
       <c r="N190" s="9"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14">
       <c r="A191" s="18">
         <v>187</v>
       </c>
@@ -5207,7 +5210,7 @@
       <c r="M191" s="9"/>
       <c r="N191" s="9"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14">
       <c r="A192" s="18">
         <v>188</v>
       </c>
@@ -5225,7 +5228,7 @@
       <c r="M192" s="9"/>
       <c r="N192" s="9"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14">
       <c r="A193" s="18">
         <v>189</v>
       </c>
@@ -5243,7 +5246,7 @@
       <c r="M193" s="9"/>
       <c r="N193" s="9"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14">
       <c r="A194" s="18">
         <v>190</v>
       </c>
@@ -5261,7 +5264,7 @@
       <c r="M194" s="9"/>
       <c r="N194" s="9"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14">
       <c r="A195" s="18">
         <v>191</v>
       </c>
@@ -5279,7 +5282,7 @@
       <c r="M195" s="9"/>
       <c r="N195" s="9"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14">
       <c r="A196" s="18">
         <v>192</v>
       </c>
@@ -5297,7 +5300,7 @@
       <c r="M196" s="9"/>
       <c r="N196" s="9"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14">
       <c r="A197" s="18">
         <v>193</v>
       </c>
@@ -5315,7 +5318,7 @@
       <c r="M197" s="9"/>
       <c r="N197" s="9"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14">
       <c r="A198" s="18">
         <v>194</v>
       </c>
@@ -5333,7 +5336,7 @@
       <c r="M198" s="9"/>
       <c r="N198" s="9"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14">
       <c r="A199" s="18">
         <v>195</v>
       </c>
@@ -5351,7 +5354,7 @@
       <c r="M199" s="9"/>
       <c r="N199" s="9"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14">
       <c r="A200" s="18">
         <v>196</v>
       </c>
@@ -5369,7 +5372,7 @@
       <c r="M200" s="9"/>
       <c r="N200" s="9"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14">
       <c r="A201" s="18">
         <v>197</v>
       </c>
@@ -5387,7 +5390,7 @@
       <c r="M201" s="9"/>
       <c r="N201" s="9"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14">
       <c r="A202" s="18">
         <v>198</v>
       </c>
@@ -5405,7 +5408,7 @@
       <c r="M202" s="9"/>
       <c r="N202" s="9"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14">
       <c r="A203" s="18">
         <v>199</v>
       </c>
@@ -5423,7 +5426,7 @@
       <c r="M203" s="9"/>
       <c r="N203" s="9"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14">
       <c r="A204" s="18">
         <v>200</v>
       </c>
@@ -5512,33 +5515,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26203ED7-BAC1-1740-B921-8EB0DA06D0AF}">
   <dimension ref="A1:Q300"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.296875" customWidth="1"/>
+    <col min="2" max="2" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="26.796875" customWidth="1"/>
     <col min="7" max="7" width="17" style="37" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.69921875" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.69921875" customWidth="1"/>
+    <col min="12" max="12" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
-    <col min="17" max="17" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.296875" customWidth="1"/>
+    <col min="17" max="17" width="46.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
@@ -5546,7 +5549,7 @@
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:17" s="22" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="22" customFormat="1" ht="31.2">
       <c r="C2" s="23" t="s">
         <v>42</v>
       </c>
@@ -5586,7 +5589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="16.2" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16.2" thickBot="1">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -5683,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -5698,13 +5701,16 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="69" t="str">
+        <f t="shared" ref="M5:M69" si="0">IF(OR(NOT(ISBLANK(N5)), NOT(ISBLANK(O5)), NOT(ISBLANK(P5))), "TRUE", "")</f>
+        <v/>
+      </c>
       <c r="N5" s="19"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="18">
         <v>2</v>
       </c>
@@ -5719,13 +5725,16 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="M6" s="69" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N6" s="9"/>
       <c r="O6" s="6"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -5740,8 +5749,8 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="9" t="str">
-        <f t="shared" ref="M7:M69" si="0">IF(OR(NOT(ISBLANK(N7)), NOT(ISBLANK(O7)), NOT(ISBLANK(P7))), "TRUE", "")</f>
+      <c r="M7" s="69" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N7" s="9"/>
@@ -5749,7 +5758,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="18">
         <v>4</v>
       </c>
@@ -5764,7 +5773,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="9" t="str">
+      <c r="M8" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5773,7 +5782,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="18">
         <v>5</v>
       </c>
@@ -5788,7 +5797,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="9" t="str">
+      <c r="M9" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5797,7 +5806,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="18">
         <v>6</v>
       </c>
@@ -5812,7 +5821,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="9" t="str">
+      <c r="M10" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5821,7 +5830,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="18">
         <v>7</v>
       </c>
@@ -5836,7 +5845,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="9" t="str">
+      <c r="M11" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5845,7 +5854,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="18">
         <v>8</v>
       </c>
@@ -5860,7 +5869,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="9" t="str">
+      <c r="M12" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5869,7 +5878,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="18">
         <v>9</v>
       </c>
@@ -5884,7 +5893,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="9" t="str">
+      <c r="M13" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5893,7 +5902,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="18">
         <v>10</v>
       </c>
@@ -5908,7 +5917,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="9" t="str">
+      <c r="M14" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5917,7 +5926,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="18">
         <v>11</v>
       </c>
@@ -5932,7 +5941,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="9" t="str">
+      <c r="M15" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5941,7 +5950,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="18">
         <v>12</v>
       </c>
@@ -5956,7 +5965,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="9" t="str">
+      <c r="M16" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5965,7 +5974,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>13</v>
       </c>
@@ -5980,7 +5989,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="9" t="str">
+      <c r="M17" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5989,7 +5998,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="18">
         <v>14</v>
       </c>
@@ -6004,7 +6013,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="9" t="str">
+      <c r="M18" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6013,7 +6022,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="18">
         <v>15</v>
       </c>
@@ -6028,7 +6037,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="9" t="str">
+      <c r="M19" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6037,7 +6046,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="18">
         <v>16</v>
       </c>
@@ -6052,7 +6061,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="9" t="str">
+      <c r="M20" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6061,7 +6070,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="18">
         <v>17</v>
       </c>
@@ -6076,7 +6085,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="9" t="str">
+      <c r="M21" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6085,7 +6094,7 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="18">
         <v>18</v>
       </c>
@@ -6100,7 +6109,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="9" t="str">
+      <c r="M22" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6109,7 +6118,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="18">
         <v>19</v>
       </c>
@@ -6124,7 +6133,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="9" t="str">
+      <c r="M23" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6133,7 +6142,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>20</v>
       </c>
@@ -6148,7 +6157,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="9" t="str">
+      <c r="M24" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6157,7 +6166,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="18">
         <v>21</v>
       </c>
@@ -6172,7 +6181,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="9" t="str">
+      <c r="M25" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6181,7 +6190,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="18">
         <v>22</v>
       </c>
@@ -6196,7 +6205,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="9" t="str">
+      <c r="M26" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6205,7 +6214,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="18">
         <v>23</v>
       </c>
@@ -6220,7 +6229,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="9" t="str">
+      <c r="M27" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6229,7 +6238,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="18">
         <v>24</v>
       </c>
@@ -6244,7 +6253,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="9" t="str">
+      <c r="M28" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6253,7 +6262,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="18">
         <v>25</v>
       </c>
@@ -6268,7 +6277,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="9" t="str">
+      <c r="M29" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6277,7 +6286,7 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="18">
         <v>26</v>
       </c>
@@ -6292,7 +6301,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="9" t="str">
+      <c r="M30" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6301,7 +6310,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="18">
         <v>27</v>
       </c>
@@ -6316,7 +6325,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="9" t="str">
+      <c r="M31" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6325,7 +6334,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="18">
         <v>28</v>
       </c>
@@ -6340,7 +6349,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="9" t="str">
+      <c r="M32" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6349,7 +6358,7 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="18">
         <v>29</v>
       </c>
@@ -6364,7 +6373,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="9" t="str">
+      <c r="M33" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6373,7 +6382,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="18">
         <v>30</v>
       </c>
@@ -6388,7 +6397,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="9" t="str">
+      <c r="M34" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6397,7 +6406,7 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="18">
         <v>31</v>
       </c>
@@ -6412,7 +6421,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="9" t="str">
+      <c r="M35" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6421,7 +6430,7 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="18">
         <v>32</v>
       </c>
@@ -6436,7 +6445,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="9" t="str">
+      <c r="M36" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6445,7 +6454,7 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="18">
         <v>33</v>
       </c>
@@ -6460,7 +6469,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="9" t="str">
+      <c r="M37" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6469,7 +6478,7 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="18">
         <v>34</v>
       </c>
@@ -6484,7 +6493,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="9" t="str">
+      <c r="M38" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6493,7 +6502,7 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="18">
         <v>35</v>
       </c>
@@ -6508,7 +6517,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="9" t="str">
+      <c r="M39" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6517,7 +6526,7 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="18">
         <v>36</v>
       </c>
@@ -6532,7 +6541,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="9" t="str">
+      <c r="M40" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6541,7 +6550,7 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="18">
         <v>37</v>
       </c>
@@ -6556,7 +6565,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="9" t="str">
+      <c r="M41" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6565,7 +6574,7 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="18">
         <v>38</v>
       </c>
@@ -6580,7 +6589,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="9" t="str">
+      <c r="M42" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6589,7 +6598,7 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="18">
         <v>39</v>
       </c>
@@ -6604,7 +6613,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="9" t="str">
+      <c r="M43" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6613,7 +6622,7 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" s="18">
         <v>40</v>
       </c>
@@ -6628,7 +6637,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="9" t="str">
+      <c r="M44" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6637,7 +6646,7 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" s="18">
         <v>41</v>
       </c>
@@ -6652,7 +6661,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
-      <c r="M45" s="9" t="str">
+      <c r="M45" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6661,7 +6670,7 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46" s="18">
         <v>42</v>
       </c>
@@ -6676,7 +6685,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
-      <c r="M46" s="9" t="str">
+      <c r="M46" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6685,7 +6694,7 @@
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47" s="18">
         <v>43</v>
       </c>
@@ -6700,7 +6709,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
-      <c r="M47" s="9" t="str">
+      <c r="M47" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6709,7 +6718,7 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48" s="18">
         <v>44</v>
       </c>
@@ -6724,7 +6733,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
-      <c r="M48" s="9" t="str">
+      <c r="M48" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6733,7 +6742,7 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="A49" s="18">
         <v>45</v>
       </c>
@@ -6748,7 +6757,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="9" t="str">
+      <c r="M49" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6757,7 +6766,7 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50" s="18">
         <v>46</v>
       </c>
@@ -6772,7 +6781,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="9" t="str">
+      <c r="M50" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6781,7 +6790,7 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51" s="18">
         <v>47</v>
       </c>
@@ -6796,7 +6805,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="9" t="str">
+      <c r="M51" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6805,7 +6814,7 @@
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52" s="18">
         <v>48</v>
       </c>
@@ -6820,7 +6829,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
-      <c r="M52" s="9" t="str">
+      <c r="M52" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6829,7 +6838,7 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53" s="18">
         <v>49</v>
       </c>
@@ -6844,7 +6853,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="9" t="str">
+      <c r="M53" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6853,7 +6862,7 @@
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54" s="18">
         <v>50</v>
       </c>
@@ -6868,7 +6877,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="9" t="str">
+      <c r="M54" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6877,7 +6886,7 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" s="18">
         <v>51</v>
       </c>
@@ -6892,7 +6901,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="9" t="str">
+      <c r="M55" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6901,7 +6910,7 @@
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56" s="18">
         <v>52</v>
       </c>
@@ -6916,7 +6925,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
-      <c r="M56" s="9" t="str">
+      <c r="M56" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6925,7 +6934,7 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57" s="18">
         <v>53</v>
       </c>
@@ -6940,7 +6949,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="9" t="str">
+      <c r="M57" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6949,7 +6958,7 @@
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="A58" s="18">
         <v>54</v>
       </c>
@@ -6964,7 +6973,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="9" t="str">
+      <c r="M58" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6973,7 +6982,7 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="A59" s="18">
         <v>55</v>
       </c>
@@ -6988,7 +6997,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
-      <c r="M59" s="9" t="str">
+      <c r="M59" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6997,7 +7006,7 @@
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="A60" s="18">
         <v>56</v>
       </c>
@@ -7012,7 +7021,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
-      <c r="M60" s="9" t="str">
+      <c r="M60" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7021,7 +7030,7 @@
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="A61" s="18">
         <v>57</v>
       </c>
@@ -7036,7 +7045,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
-      <c r="M61" s="9" t="str">
+      <c r="M61" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7045,7 +7054,7 @@
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="A62" s="18">
         <v>58</v>
       </c>
@@ -7060,7 +7069,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="9" t="str">
+      <c r="M62" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7069,7 +7078,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="A63" s="18">
         <v>59</v>
       </c>
@@ -7084,7 +7093,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
-      <c r="M63" s="9" t="str">
+      <c r="M63" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7093,7 +7102,7 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="A64" s="18">
         <v>60</v>
       </c>
@@ -7108,7 +7117,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
-      <c r="M64" s="9" t="str">
+      <c r="M64" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7117,7 +7126,7 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="A65" s="18">
         <v>61</v>
       </c>
@@ -7132,7 +7141,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
-      <c r="M65" s="9" t="str">
+      <c r="M65" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7141,7 +7150,7 @@
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="A66" s="18">
         <v>62</v>
       </c>
@@ -7156,7 +7165,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
-      <c r="M66" s="9" t="str">
+      <c r="M66" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7165,7 +7174,7 @@
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="A67" s="18">
         <v>63</v>
       </c>
@@ -7180,7 +7189,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
-      <c r="M67" s="9" t="str">
+      <c r="M67" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7189,7 +7198,7 @@
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="A68" s="18">
         <v>64</v>
       </c>
@@ -7204,7 +7213,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
-      <c r="M68" s="9" t="str">
+      <c r="M68" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7213,7 +7222,7 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17">
       <c r="A69" s="18">
         <v>65</v>
       </c>
@@ -7228,7 +7237,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
-      <c r="M69" s="9" t="str">
+      <c r="M69" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7237,7 +7246,7 @@
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="A70" s="18">
         <v>66</v>
       </c>
@@ -7252,7 +7261,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
-      <c r="M70" s="9" t="str">
+      <c r="M70" s="69" t="str">
         <f t="shared" ref="M70:M133" si="1">IF(OR(NOT(ISBLANK(N70)), NOT(ISBLANK(O70)), NOT(ISBLANK(P70))), "TRUE", "")</f>
         <v/>
       </c>
@@ -7261,7 +7270,7 @@
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="A71" s="18">
         <v>67</v>
       </c>
@@ -7276,7 +7285,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
-      <c r="M71" s="9" t="str">
+      <c r="M71" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7285,7 +7294,7 @@
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="A72" s="18">
         <v>68</v>
       </c>
@@ -7300,7 +7309,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
-      <c r="M72" s="9" t="str">
+      <c r="M72" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7309,7 +7318,7 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="A73" s="18">
         <v>69</v>
       </c>
@@ -7324,7 +7333,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="9" t="str">
+      <c r="M73" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7333,7 +7342,7 @@
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="A74" s="18">
         <v>70</v>
       </c>
@@ -7348,7 +7357,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="9" t="str">
+      <c r="M74" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7357,7 +7366,7 @@
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="A75" s="18">
         <v>71</v>
       </c>
@@ -7372,7 +7381,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
-      <c r="M75" s="9" t="str">
+      <c r="M75" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7381,7 +7390,7 @@
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="A76" s="18">
         <v>72</v>
       </c>
@@ -7396,7 +7405,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
-      <c r="M76" s="9" t="str">
+      <c r="M76" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7405,7 +7414,7 @@
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="A77" s="18">
         <v>73</v>
       </c>
@@ -7420,7 +7429,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="9" t="str">
+      <c r="M77" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7429,7 +7438,7 @@
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="A78" s="18">
         <v>74</v>
       </c>
@@ -7444,7 +7453,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="9" t="str">
+      <c r="M78" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7453,7 +7462,7 @@
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79" s="18">
         <v>75</v>
       </c>
@@ -7468,7 +7477,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
-      <c r="M79" s="9" t="str">
+      <c r="M79" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7477,7 +7486,7 @@
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17">
       <c r="A80" s="18">
         <v>76</v>
       </c>
@@ -7492,7 +7501,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
-      <c r="M80" s="9" t="str">
+      <c r="M80" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7501,7 +7510,7 @@
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17">
       <c r="A81" s="18">
         <v>77</v>
       </c>
@@ -7516,7 +7525,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
-      <c r="M81" s="9" t="str">
+      <c r="M81" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7525,7 +7534,7 @@
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="A82" s="18">
         <v>78</v>
       </c>
@@ -7540,7 +7549,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
-      <c r="M82" s="9" t="str">
+      <c r="M82" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7549,7 +7558,7 @@
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="A83" s="18">
         <v>79</v>
       </c>
@@ -7564,7 +7573,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
-      <c r="M83" s="9" t="str">
+      <c r="M83" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7573,7 +7582,7 @@
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="A84" s="18">
         <v>80</v>
       </c>
@@ -7588,7 +7597,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
-      <c r="M84" s="9" t="str">
+      <c r="M84" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7597,7 +7606,7 @@
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="A85" s="18">
         <v>81</v>
       </c>
@@ -7612,7 +7621,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
-      <c r="M85" s="9" t="str">
+      <c r="M85" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7621,7 +7630,7 @@
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="A86" s="18">
         <v>82</v>
       </c>
@@ -7636,7 +7645,7 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
-      <c r="M86" s="9" t="str">
+      <c r="M86" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7645,7 +7654,7 @@
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17">
       <c r="A87" s="18">
         <v>83</v>
       </c>
@@ -7660,7 +7669,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
-      <c r="M87" s="9" t="str">
+      <c r="M87" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7669,7 +7678,7 @@
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="A88" s="18">
         <v>84</v>
       </c>
@@ -7684,7 +7693,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
-      <c r="M88" s="9" t="str">
+      <c r="M88" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7693,7 +7702,7 @@
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="A89" s="18">
         <v>85</v>
       </c>
@@ -7708,7 +7717,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
-      <c r="M89" s="9" t="str">
+      <c r="M89" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7717,7 +7726,7 @@
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="A90" s="18">
         <v>86</v>
       </c>
@@ -7732,7 +7741,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
-      <c r="M90" s="9" t="str">
+      <c r="M90" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7741,7 +7750,7 @@
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="A91" s="18">
         <v>87</v>
       </c>
@@ -7756,7 +7765,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
-      <c r="M91" s="9" t="str">
+      <c r="M91" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7765,7 +7774,7 @@
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="A92" s="18">
         <v>88</v>
       </c>
@@ -7780,7 +7789,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
-      <c r="M92" s="9" t="str">
+      <c r="M92" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7789,7 +7798,7 @@
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="A93" s="18">
         <v>89</v>
       </c>
@@ -7804,7 +7813,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
-      <c r="M93" s="9" t="str">
+      <c r="M93" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7813,7 +7822,7 @@
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="A94" s="18">
         <v>90</v>
       </c>
@@ -7828,7 +7837,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
-      <c r="M94" s="9" t="str">
+      <c r="M94" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7837,7 +7846,7 @@
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="A95" s="18">
         <v>91</v>
       </c>
@@ -7852,7 +7861,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
-      <c r="M95" s="9" t="str">
+      <c r="M95" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7861,7 +7870,7 @@
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="A96" s="18">
         <v>92</v>
       </c>
@@ -7876,7 +7885,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
-      <c r="M96" s="9" t="str">
+      <c r="M96" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7885,7 +7894,7 @@
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17">
       <c r="A97" s="18">
         <v>93</v>
       </c>
@@ -7900,7 +7909,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
-      <c r="M97" s="9" t="str">
+      <c r="M97" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7909,7 +7918,7 @@
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17">
       <c r="A98" s="18">
         <v>94</v>
       </c>
@@ -7924,7 +7933,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="9" t="str">
+      <c r="M98" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7933,7 +7942,7 @@
       <c r="P98" s="9"/>
       <c r="Q98" s="9"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17">
       <c r="A99" s="18">
         <v>95</v>
       </c>
@@ -7948,7 +7957,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
-      <c r="M99" s="9" t="str">
+      <c r="M99" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7957,7 +7966,7 @@
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17">
       <c r="A100" s="18">
         <v>96</v>
       </c>
@@ -7972,7 +7981,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
-      <c r="M100" s="9" t="str">
+      <c r="M100" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7981,7 +7990,7 @@
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17">
       <c r="A101" s="18">
         <v>97</v>
       </c>
@@ -7996,7 +8005,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
-      <c r="M101" s="9" t="str">
+      <c r="M101" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8005,7 +8014,7 @@
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17">
       <c r="A102" s="18">
         <v>98</v>
       </c>
@@ -8020,7 +8029,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
-      <c r="M102" s="9" t="str">
+      <c r="M102" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8029,7 +8038,7 @@
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17">
       <c r="A103" s="18">
         <v>99</v>
       </c>
@@ -8044,7 +8053,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
-      <c r="M103" s="9" t="str">
+      <c r="M103" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8053,7 +8062,7 @@
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17">
       <c r="A104" s="18">
         <v>100</v>
       </c>
@@ -8068,7 +8077,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
-      <c r="M104" s="9" t="str">
+      <c r="M104" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8077,7 +8086,7 @@
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17">
       <c r="A105" s="18">
         <v>101</v>
       </c>
@@ -8092,7 +8101,7 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
-      <c r="M105" s="9" t="str">
+      <c r="M105" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8101,7 +8110,7 @@
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17">
       <c r="A106" s="18">
         <v>102</v>
       </c>
@@ -8116,7 +8125,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
-      <c r="M106" s="9" t="str">
+      <c r="M106" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8125,7 +8134,7 @@
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17">
       <c r="A107" s="18">
         <v>103</v>
       </c>
@@ -8140,7 +8149,7 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
-      <c r="M107" s="9" t="str">
+      <c r="M107" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8149,7 +8158,7 @@
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17">
       <c r="A108" s="18">
         <v>104</v>
       </c>
@@ -8164,7 +8173,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
-      <c r="M108" s="9" t="str">
+      <c r="M108" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8173,7 +8182,7 @@
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17">
       <c r="A109" s="18">
         <v>105</v>
       </c>
@@ -8188,7 +8197,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
-      <c r="M109" s="9" t="str">
+      <c r="M109" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8197,7 +8206,7 @@
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17">
       <c r="A110" s="18">
         <v>106</v>
       </c>
@@ -8212,7 +8221,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
-      <c r="M110" s="9" t="str">
+      <c r="M110" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8221,7 +8230,7 @@
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17">
       <c r="A111" s="18">
         <v>107</v>
       </c>
@@ -8236,7 +8245,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
-      <c r="M111" s="9" t="str">
+      <c r="M111" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8245,7 +8254,7 @@
       <c r="P111" s="9"/>
       <c r="Q111" s="9"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17">
       <c r="A112" s="18">
         <v>108</v>
       </c>
@@ -8260,7 +8269,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
-      <c r="M112" s="9" t="str">
+      <c r="M112" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8269,7 +8278,7 @@
       <c r="P112" s="9"/>
       <c r="Q112" s="9"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17">
       <c r="A113" s="18">
         <v>109</v>
       </c>
@@ -8284,7 +8293,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
-      <c r="M113" s="9" t="str">
+      <c r="M113" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8293,7 +8302,7 @@
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17">
       <c r="A114" s="18">
         <v>110</v>
       </c>
@@ -8308,7 +8317,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
-      <c r="M114" s="9" t="str">
+      <c r="M114" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8317,7 +8326,7 @@
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17">
       <c r="A115" s="18">
         <v>111</v>
       </c>
@@ -8332,7 +8341,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
-      <c r="M115" s="9" t="str">
+      <c r="M115" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8341,7 +8350,7 @@
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17">
       <c r="A116" s="18">
         <v>112</v>
       </c>
@@ -8356,7 +8365,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
-      <c r="M116" s="9" t="str">
+      <c r="M116" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8365,7 +8374,7 @@
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17">
       <c r="A117" s="18">
         <v>113</v>
       </c>
@@ -8380,7 +8389,7 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
-      <c r="M117" s="9" t="str">
+      <c r="M117" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8389,7 +8398,7 @@
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17">
       <c r="A118" s="18">
         <v>114</v>
       </c>
@@ -8404,7 +8413,7 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
-      <c r="M118" s="9" t="str">
+      <c r="M118" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8413,7 +8422,7 @@
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17">
       <c r="A119" s="18">
         <v>115</v>
       </c>
@@ -8428,7 +8437,7 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
-      <c r="M119" s="9" t="str">
+      <c r="M119" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8437,7 +8446,7 @@
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17">
       <c r="A120" s="18">
         <v>116</v>
       </c>
@@ -8452,7 +8461,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
-      <c r="M120" s="9" t="str">
+      <c r="M120" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8461,7 +8470,7 @@
       <c r="P120" s="9"/>
       <c r="Q120" s="9"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17">
       <c r="A121" s="18">
         <v>117</v>
       </c>
@@ -8476,7 +8485,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
-      <c r="M121" s="9" t="str">
+      <c r="M121" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8485,7 +8494,7 @@
       <c r="P121" s="9"/>
       <c r="Q121" s="9"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17">
       <c r="A122" s="18">
         <v>118</v>
       </c>
@@ -8500,7 +8509,7 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
-      <c r="M122" s="9" t="str">
+      <c r="M122" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8509,7 +8518,7 @@
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17">
       <c r="A123" s="18">
         <v>119</v>
       </c>
@@ -8524,7 +8533,7 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
-      <c r="M123" s="9" t="str">
+      <c r="M123" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8533,7 +8542,7 @@
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17">
       <c r="A124" s="18">
         <v>120</v>
       </c>
@@ -8548,7 +8557,7 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
-      <c r="M124" s="9" t="str">
+      <c r="M124" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8557,7 +8566,7 @@
       <c r="P124" s="9"/>
       <c r="Q124" s="9"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17">
       <c r="A125" s="18">
         <v>121</v>
       </c>
@@ -8572,7 +8581,7 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
-      <c r="M125" s="9" t="str">
+      <c r="M125" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8581,7 +8590,7 @@
       <c r="P125" s="9"/>
       <c r="Q125" s="9"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17">
       <c r="A126" s="18">
         <v>122</v>
       </c>
@@ -8596,7 +8605,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
-      <c r="M126" s="9" t="str">
+      <c r="M126" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8605,7 +8614,7 @@
       <c r="P126" s="9"/>
       <c r="Q126" s="9"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17">
       <c r="A127" s="18">
         <v>123</v>
       </c>
@@ -8620,7 +8629,7 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
-      <c r="M127" s="9" t="str">
+      <c r="M127" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8629,7 +8638,7 @@
       <c r="P127" s="9"/>
       <c r="Q127" s="9"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17">
       <c r="A128" s="18">
         <v>124</v>
       </c>
@@ -8644,7 +8653,7 @@
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
-      <c r="M128" s="9" t="str">
+      <c r="M128" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8653,7 +8662,7 @@
       <c r="P128" s="9"/>
       <c r="Q128" s="9"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17">
       <c r="A129" s="18">
         <v>125</v>
       </c>
@@ -8668,7 +8677,7 @@
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
-      <c r="M129" s="9" t="str">
+      <c r="M129" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8677,7 +8686,7 @@
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17">
       <c r="A130" s="18">
         <v>126</v>
       </c>
@@ -8692,7 +8701,7 @@
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
-      <c r="M130" s="9" t="str">
+      <c r="M130" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8701,7 +8710,7 @@
       <c r="P130" s="9"/>
       <c r="Q130" s="9"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17">
       <c r="A131" s="18">
         <v>127</v>
       </c>
@@ -8716,7 +8725,7 @@
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
-      <c r="M131" s="9" t="str">
+      <c r="M131" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8725,7 +8734,7 @@
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17">
       <c r="A132" s="18">
         <v>128</v>
       </c>
@@ -8740,7 +8749,7 @@
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
-      <c r="M132" s="9" t="str">
+      <c r="M132" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8749,7 +8758,7 @@
       <c r="P132" s="9"/>
       <c r="Q132" s="9"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17">
       <c r="A133" s="18">
         <v>129</v>
       </c>
@@ -8764,7 +8773,7 @@
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
-      <c r="M133" s="9" t="str">
+      <c r="M133" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8773,7 +8782,7 @@
       <c r="P133" s="9"/>
       <c r="Q133" s="9"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17">
       <c r="A134" s="18">
         <v>130</v>
       </c>
@@ -8788,7 +8797,7 @@
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
-      <c r="M134" s="9" t="str">
+      <c r="M134" s="69" t="str">
         <f t="shared" ref="M134:M197" si="2">IF(OR(NOT(ISBLANK(N134)), NOT(ISBLANK(O134)), NOT(ISBLANK(P134))), "TRUE", "")</f>
         <v/>
       </c>
@@ -8797,7 +8806,7 @@
       <c r="P134" s="9"/>
       <c r="Q134" s="9"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17">
       <c r="A135" s="18">
         <v>131</v>
       </c>
@@ -8812,7 +8821,7 @@
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
-      <c r="M135" s="9" t="str">
+      <c r="M135" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8821,7 +8830,7 @@
       <c r="P135" s="9"/>
       <c r="Q135" s="9"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17">
       <c r="A136" s="18">
         <v>132</v>
       </c>
@@ -8836,7 +8845,7 @@
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c r="L136" s="9"/>
-      <c r="M136" s="9" t="str">
+      <c r="M136" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8845,7 +8854,7 @@
       <c r="P136" s="9"/>
       <c r="Q136" s="9"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17">
       <c r="A137" s="18">
         <v>133</v>
       </c>
@@ -8860,7 +8869,7 @@
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
-      <c r="M137" s="9" t="str">
+      <c r="M137" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8869,7 +8878,7 @@
       <c r="P137" s="9"/>
       <c r="Q137" s="9"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17">
       <c r="A138" s="18">
         <v>134</v>
       </c>
@@ -8884,7 +8893,7 @@
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
-      <c r="M138" s="9" t="str">
+      <c r="M138" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8893,7 +8902,7 @@
       <c r="P138" s="9"/>
       <c r="Q138" s="9"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17">
       <c r="A139" s="18">
         <v>135</v>
       </c>
@@ -8908,7 +8917,7 @@
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
-      <c r="M139" s="9" t="str">
+      <c r="M139" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8917,7 +8926,7 @@
       <c r="P139" s="9"/>
       <c r="Q139" s="9"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17">
       <c r="A140" s="18">
         <v>136</v>
       </c>
@@ -8932,7 +8941,7 @@
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
-      <c r="M140" s="9" t="str">
+      <c r="M140" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8941,7 +8950,7 @@
       <c r="P140" s="9"/>
       <c r="Q140" s="9"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17">
       <c r="A141" s="18">
         <v>137</v>
       </c>
@@ -8956,7 +8965,7 @@
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
-      <c r="M141" s="9" t="str">
+      <c r="M141" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8965,7 +8974,7 @@
       <c r="P141" s="9"/>
       <c r="Q141" s="9"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17">
       <c r="A142" s="18">
         <v>138</v>
       </c>
@@ -8980,7 +8989,7 @@
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
-      <c r="M142" s="9" t="str">
+      <c r="M142" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8989,7 +8998,7 @@
       <c r="P142" s="9"/>
       <c r="Q142" s="9"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17">
       <c r="A143" s="18">
         <v>139</v>
       </c>
@@ -9004,7 +9013,7 @@
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
-      <c r="M143" s="9" t="str">
+      <c r="M143" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9013,7 +9022,7 @@
       <c r="P143" s="9"/>
       <c r="Q143" s="9"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17">
       <c r="A144" s="18">
         <v>140</v>
       </c>
@@ -9028,7 +9037,7 @@
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
-      <c r="M144" s="9" t="str">
+      <c r="M144" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9037,7 +9046,7 @@
       <c r="P144" s="9"/>
       <c r="Q144" s="9"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17">
       <c r="A145" s="18">
         <v>141</v>
       </c>
@@ -9052,7 +9061,7 @@
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
-      <c r="M145" s="9" t="str">
+      <c r="M145" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9061,7 +9070,7 @@
       <c r="P145" s="9"/>
       <c r="Q145" s="9"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17">
       <c r="A146" s="18">
         <v>142</v>
       </c>
@@ -9076,7 +9085,7 @@
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
-      <c r="M146" s="9" t="str">
+      <c r="M146" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9085,7 +9094,7 @@
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17">
       <c r="A147" s="18">
         <v>143</v>
       </c>
@@ -9100,7 +9109,7 @@
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
-      <c r="M147" s="9" t="str">
+      <c r="M147" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9109,7 +9118,7 @@
       <c r="P147" s="9"/>
       <c r="Q147" s="9"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17">
       <c r="A148" s="18">
         <v>144</v>
       </c>
@@ -9124,7 +9133,7 @@
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
-      <c r="M148" s="9" t="str">
+      <c r="M148" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9133,7 +9142,7 @@
       <c r="P148" s="9"/>
       <c r="Q148" s="9"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17">
       <c r="A149" s="18">
         <v>145</v>
       </c>
@@ -9148,7 +9157,7 @@
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
-      <c r="M149" s="9" t="str">
+      <c r="M149" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9157,7 +9166,7 @@
       <c r="P149" s="9"/>
       <c r="Q149" s="9"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17">
       <c r="A150" s="18">
         <v>146</v>
       </c>
@@ -9172,7 +9181,7 @@
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
-      <c r="M150" s="9" t="str">
+      <c r="M150" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9181,7 +9190,7 @@
       <c r="P150" s="9"/>
       <c r="Q150" s="9"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17">
       <c r="A151" s="18">
         <v>147</v>
       </c>
@@ -9196,7 +9205,7 @@
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
-      <c r="M151" s="9" t="str">
+      <c r="M151" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9205,7 +9214,7 @@
       <c r="P151" s="9"/>
       <c r="Q151" s="9"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17">
       <c r="A152" s="18">
         <v>148</v>
       </c>
@@ -9220,7 +9229,7 @@
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
-      <c r="M152" s="9" t="str">
+      <c r="M152" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9229,7 +9238,7 @@
       <c r="P152" s="9"/>
       <c r="Q152" s="9"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17">
       <c r="A153" s="18">
         <v>149</v>
       </c>
@@ -9244,7 +9253,7 @@
       <c r="J153" s="9"/>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
-      <c r="M153" s="9" t="str">
+      <c r="M153" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9253,7 +9262,7 @@
       <c r="P153" s="9"/>
       <c r="Q153" s="9"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17">
       <c r="A154" s="18">
         <v>150</v>
       </c>
@@ -9268,7 +9277,7 @@
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
-      <c r="M154" s="9" t="str">
+      <c r="M154" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9277,7 +9286,7 @@
       <c r="P154" s="9"/>
       <c r="Q154" s="9"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17">
       <c r="A155" s="18">
         <v>151</v>
       </c>
@@ -9292,7 +9301,7 @@
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
-      <c r="M155" s="9" t="str">
+      <c r="M155" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9301,7 +9310,7 @@
       <c r="P155" s="9"/>
       <c r="Q155" s="9"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17">
       <c r="A156" s="18">
         <v>152</v>
       </c>
@@ -9316,7 +9325,7 @@
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
-      <c r="M156" s="9" t="str">
+      <c r="M156" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9325,7 +9334,7 @@
       <c r="P156" s="9"/>
       <c r="Q156" s="9"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17">
       <c r="A157" s="18">
         <v>153</v>
       </c>
@@ -9340,7 +9349,7 @@
       <c r="J157" s="9"/>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
-      <c r="M157" s="9" t="str">
+      <c r="M157" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9349,7 +9358,7 @@
       <c r="P157" s="9"/>
       <c r="Q157" s="9"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17">
       <c r="A158" s="18">
         <v>154</v>
       </c>
@@ -9364,7 +9373,7 @@
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
-      <c r="M158" s="9" t="str">
+      <c r="M158" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9373,7 +9382,7 @@
       <c r="P158" s="9"/>
       <c r="Q158" s="9"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17">
       <c r="A159" s="18">
         <v>155</v>
       </c>
@@ -9388,7 +9397,7 @@
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
-      <c r="M159" s="9" t="str">
+      <c r="M159" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9397,7 +9406,7 @@
       <c r="P159" s="9"/>
       <c r="Q159" s="9"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17">
       <c r="A160" s="18">
         <v>156</v>
       </c>
@@ -9412,7 +9421,7 @@
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
-      <c r="M160" s="9" t="str">
+      <c r="M160" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9421,7 +9430,7 @@
       <c r="P160" s="9"/>
       <c r="Q160" s="9"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17">
       <c r="A161" s="18">
         <v>157</v>
       </c>
@@ -9436,7 +9445,7 @@
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
-      <c r="M161" s="9" t="str">
+      <c r="M161" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9445,7 +9454,7 @@
       <c r="P161" s="9"/>
       <c r="Q161" s="9"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17">
       <c r="A162" s="18">
         <v>158</v>
       </c>
@@ -9460,7 +9469,7 @@
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
-      <c r="M162" s="9" t="str">
+      <c r="M162" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9469,7 +9478,7 @@
       <c r="P162" s="9"/>
       <c r="Q162" s="9"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17">
       <c r="A163" s="18">
         <v>159</v>
       </c>
@@ -9484,7 +9493,7 @@
       <c r="J163" s="9"/>
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
-      <c r="M163" s="9" t="str">
+      <c r="M163" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9493,7 +9502,7 @@
       <c r="P163" s="9"/>
       <c r="Q163" s="9"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17">
       <c r="A164" s="18">
         <v>160</v>
       </c>
@@ -9508,7 +9517,7 @@
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
-      <c r="M164" s="9" t="str">
+      <c r="M164" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9517,7 +9526,7 @@
       <c r="P164" s="9"/>
       <c r="Q164" s="9"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17">
       <c r="A165" s="18">
         <v>161</v>
       </c>
@@ -9532,7 +9541,7 @@
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
-      <c r="M165" s="9" t="str">
+      <c r="M165" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9541,7 +9550,7 @@
       <c r="P165" s="9"/>
       <c r="Q165" s="9"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17">
       <c r="A166" s="18">
         <v>162</v>
       </c>
@@ -9556,7 +9565,7 @@
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
       <c r="L166" s="9"/>
-      <c r="M166" s="9" t="str">
+      <c r="M166" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9565,7 +9574,7 @@
       <c r="P166" s="9"/>
       <c r="Q166" s="9"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17">
       <c r="A167" s="18">
         <v>163</v>
       </c>
@@ -9580,7 +9589,7 @@
       <c r="J167" s="9"/>
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
-      <c r="M167" s="9" t="str">
+      <c r="M167" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9589,7 +9598,7 @@
       <c r="P167" s="9"/>
       <c r="Q167" s="9"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17">
       <c r="A168" s="18">
         <v>164</v>
       </c>
@@ -9604,7 +9613,7 @@
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
-      <c r="M168" s="9" t="str">
+      <c r="M168" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9613,7 +9622,7 @@
       <c r="P168" s="9"/>
       <c r="Q168" s="9"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17">
       <c r="A169" s="18">
         <v>165</v>
       </c>
@@ -9628,7 +9637,7 @@
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
       <c r="L169" s="9"/>
-      <c r="M169" s="9" t="str">
+      <c r="M169" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9637,7 +9646,7 @@
       <c r="P169" s="9"/>
       <c r="Q169" s="9"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17">
       <c r="A170" s="18">
         <v>166</v>
       </c>
@@ -9652,7 +9661,7 @@
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
-      <c r="M170" s="9" t="str">
+      <c r="M170" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9661,7 +9670,7 @@
       <c r="P170" s="9"/>
       <c r="Q170" s="9"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17">
       <c r="A171" s="18">
         <v>167</v>
       </c>
@@ -9676,7 +9685,7 @@
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
       <c r="L171" s="9"/>
-      <c r="M171" s="9" t="str">
+      <c r="M171" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9685,7 +9694,7 @@
       <c r="P171" s="9"/>
       <c r="Q171" s="9"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17">
       <c r="A172" s="18">
         <v>168</v>
       </c>
@@ -9700,7 +9709,7 @@
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
       <c r="L172" s="9"/>
-      <c r="M172" s="9" t="str">
+      <c r="M172" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9709,7 +9718,7 @@
       <c r="P172" s="9"/>
       <c r="Q172" s="9"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17">
       <c r="A173" s="18">
         <v>169</v>
       </c>
@@ -9724,7 +9733,7 @@
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
-      <c r="M173" s="9" t="str">
+      <c r="M173" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9733,7 +9742,7 @@
       <c r="P173" s="9"/>
       <c r="Q173" s="9"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17">
       <c r="A174" s="18">
         <v>170</v>
       </c>
@@ -9748,7 +9757,7 @@
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
-      <c r="M174" s="9" t="str">
+      <c r="M174" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9757,7 +9766,7 @@
       <c r="P174" s="9"/>
       <c r="Q174" s="9"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17">
       <c r="A175" s="18">
         <v>171</v>
       </c>
@@ -9772,7 +9781,7 @@
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
-      <c r="M175" s="9" t="str">
+      <c r="M175" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9781,7 +9790,7 @@
       <c r="P175" s="9"/>
       <c r="Q175" s="9"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17">
       <c r="A176" s="18">
         <v>172</v>
       </c>
@@ -9796,7 +9805,7 @@
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
-      <c r="M176" s="9" t="str">
+      <c r="M176" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9805,7 +9814,7 @@
       <c r="P176" s="9"/>
       <c r="Q176" s="9"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17">
       <c r="A177" s="18">
         <v>173</v>
       </c>
@@ -9820,7 +9829,7 @@
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
-      <c r="M177" s="9" t="str">
+      <c r="M177" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9829,7 +9838,7 @@
       <c r="P177" s="9"/>
       <c r="Q177" s="9"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17">
       <c r="A178" s="18">
         <v>174</v>
       </c>
@@ -9844,7 +9853,7 @@
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
-      <c r="M178" s="9" t="str">
+      <c r="M178" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9853,7 +9862,7 @@
       <c r="P178" s="9"/>
       <c r="Q178" s="9"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17">
       <c r="A179" s="18">
         <v>175</v>
       </c>
@@ -9868,7 +9877,7 @@
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
-      <c r="M179" s="9" t="str">
+      <c r="M179" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9877,7 +9886,7 @@
       <c r="P179" s="9"/>
       <c r="Q179" s="9"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17">
       <c r="A180" s="18">
         <v>176</v>
       </c>
@@ -9892,7 +9901,7 @@
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
-      <c r="M180" s="9" t="str">
+      <c r="M180" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9901,7 +9910,7 @@
       <c r="P180" s="9"/>
       <c r="Q180" s="9"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17">
       <c r="A181" s="18">
         <v>177</v>
       </c>
@@ -9916,7 +9925,7 @@
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
-      <c r="M181" s="9" t="str">
+      <c r="M181" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9925,7 +9934,7 @@
       <c r="P181" s="9"/>
       <c r="Q181" s="9"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17">
       <c r="A182" s="18">
         <v>178</v>
       </c>
@@ -9940,7 +9949,7 @@
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
-      <c r="M182" s="9" t="str">
+      <c r="M182" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9949,7 +9958,7 @@
       <c r="P182" s="9"/>
       <c r="Q182" s="9"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17">
       <c r="A183" s="18">
         <v>179</v>
       </c>
@@ -9964,7 +9973,7 @@
       <c r="J183" s="9"/>
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
-      <c r="M183" s="9" t="str">
+      <c r="M183" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9973,7 +9982,7 @@
       <c r="P183" s="9"/>
       <c r="Q183" s="9"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17">
       <c r="A184" s="18">
         <v>180</v>
       </c>
@@ -9988,7 +9997,7 @@
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
-      <c r="M184" s="9" t="str">
+      <c r="M184" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -9997,7 +10006,7 @@
       <c r="P184" s="9"/>
       <c r="Q184" s="9"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17">
       <c r="A185" s="18">
         <v>181</v>
       </c>
@@ -10012,7 +10021,7 @@
       <c r="J185" s="9"/>
       <c r="K185" s="9"/>
       <c r="L185" s="9"/>
-      <c r="M185" s="9" t="str">
+      <c r="M185" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10021,7 +10030,7 @@
       <c r="P185" s="9"/>
       <c r="Q185" s="9"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17">
       <c r="A186" s="18">
         <v>182</v>
       </c>
@@ -10036,7 +10045,7 @@
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
-      <c r="M186" s="9" t="str">
+      <c r="M186" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10045,7 +10054,7 @@
       <c r="P186" s="9"/>
       <c r="Q186" s="9"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17">
       <c r="A187" s="18">
         <v>183</v>
       </c>
@@ -10060,7 +10069,7 @@
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
-      <c r="M187" s="9" t="str">
+      <c r="M187" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10069,7 +10078,7 @@
       <c r="P187" s="9"/>
       <c r="Q187" s="9"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17">
       <c r="A188" s="18">
         <v>184</v>
       </c>
@@ -10084,7 +10093,7 @@
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
       <c r="L188" s="9"/>
-      <c r="M188" s="9" t="str">
+      <c r="M188" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10093,7 +10102,7 @@
       <c r="P188" s="9"/>
       <c r="Q188" s="9"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17">
       <c r="A189" s="18">
         <v>185</v>
       </c>
@@ -10108,7 +10117,7 @@
       <c r="J189" s="9"/>
       <c r="K189" s="9"/>
       <c r="L189" s="9"/>
-      <c r="M189" s="9" t="str">
+      <c r="M189" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10117,7 +10126,7 @@
       <c r="P189" s="9"/>
       <c r="Q189" s="9"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17">
       <c r="A190" s="18">
         <v>186</v>
       </c>
@@ -10132,7 +10141,7 @@
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="9"/>
-      <c r="M190" s="9" t="str">
+      <c r="M190" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10141,7 +10150,7 @@
       <c r="P190" s="9"/>
       <c r="Q190" s="9"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17">
       <c r="A191" s="18">
         <v>187</v>
       </c>
@@ -10156,7 +10165,7 @@
       <c r="J191" s="9"/>
       <c r="K191" s="9"/>
       <c r="L191" s="9"/>
-      <c r="M191" s="9" t="str">
+      <c r="M191" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10165,7 +10174,7 @@
       <c r="P191" s="9"/>
       <c r="Q191" s="9"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17">
       <c r="A192" s="18">
         <v>188</v>
       </c>
@@ -10180,7 +10189,7 @@
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
-      <c r="M192" s="9" t="str">
+      <c r="M192" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10189,7 +10198,7 @@
       <c r="P192" s="9"/>
       <c r="Q192" s="9"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17">
       <c r="A193" s="18">
         <v>189</v>
       </c>
@@ -10204,7 +10213,7 @@
       <c r="J193" s="9"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
-      <c r="M193" s="9" t="str">
+      <c r="M193" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10213,7 +10222,7 @@
       <c r="P193" s="9"/>
       <c r="Q193" s="9"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17">
       <c r="A194" s="18">
         <v>190</v>
       </c>
@@ -10228,7 +10237,7 @@
       <c r="J194" s="9"/>
       <c r="K194" s="9"/>
       <c r="L194" s="9"/>
-      <c r="M194" s="9" t="str">
+      <c r="M194" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10237,7 +10246,7 @@
       <c r="P194" s="9"/>
       <c r="Q194" s="9"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17">
       <c r="A195" s="18">
         <v>191</v>
       </c>
@@ -10252,7 +10261,7 @@
       <c r="J195" s="9"/>
       <c r="K195" s="9"/>
       <c r="L195" s="9"/>
-      <c r="M195" s="9" t="str">
+      <c r="M195" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10261,7 +10270,7 @@
       <c r="P195" s="9"/>
       <c r="Q195" s="9"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17">
       <c r="A196" s="18">
         <v>192</v>
       </c>
@@ -10276,7 +10285,7 @@
       <c r="J196" s="9"/>
       <c r="K196" s="9"/>
       <c r="L196" s="9"/>
-      <c r="M196" s="9" t="str">
+      <c r="M196" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10285,7 +10294,7 @@
       <c r="P196" s="9"/>
       <c r="Q196" s="9"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17">
       <c r="A197" s="18">
         <v>193</v>
       </c>
@@ -10300,7 +10309,7 @@
       <c r="J197" s="9"/>
       <c r="K197" s="9"/>
       <c r="L197" s="9"/>
-      <c r="M197" s="9" t="str">
+      <c r="M197" s="69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -10309,7 +10318,7 @@
       <c r="P197" s="9"/>
       <c r="Q197" s="9"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17">
       <c r="A198" s="18">
         <v>194</v>
       </c>
@@ -10324,7 +10333,7 @@
       <c r="J198" s="9"/>
       <c r="K198" s="9"/>
       <c r="L198" s="9"/>
-      <c r="M198" s="9" t="str">
+      <c r="M198" s="69" t="str">
         <f t="shared" ref="M198:M205" si="3">IF(OR(NOT(ISBLANK(N198)), NOT(ISBLANK(O198)), NOT(ISBLANK(P198))), "TRUE", "")</f>
         <v/>
       </c>
@@ -10333,7 +10342,7 @@
       <c r="P198" s="9"/>
       <c r="Q198" s="9"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17">
       <c r="A199" s="18">
         <v>195</v>
       </c>
@@ -10348,7 +10357,7 @@
       <c r="J199" s="9"/>
       <c r="K199" s="9"/>
       <c r="L199" s="9"/>
-      <c r="M199" s="9" t="str">
+      <c r="M199" s="69" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10357,7 +10366,7 @@
       <c r="P199" s="9"/>
       <c r="Q199" s="9"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17">
       <c r="A200" s="18">
         <v>196</v>
       </c>
@@ -10372,7 +10381,7 @@
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
       <c r="L200" s="9"/>
-      <c r="M200" s="9" t="str">
+      <c r="M200" s="69" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10381,7 +10390,7 @@
       <c r="P200" s="9"/>
       <c r="Q200" s="9"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17">
       <c r="A201" s="18">
         <v>197</v>
       </c>
@@ -10396,7 +10405,7 @@
       <c r="J201" s="9"/>
       <c r="K201" s="9"/>
       <c r="L201" s="9"/>
-      <c r="M201" s="9" t="str">
+      <c r="M201" s="69" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10405,7 +10414,7 @@
       <c r="P201" s="9"/>
       <c r="Q201" s="9"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17">
       <c r="A202" s="18">
         <v>198</v>
       </c>
@@ -10420,7 +10429,7 @@
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
       <c r="L202" s="9"/>
-      <c r="M202" s="9" t="str">
+      <c r="M202" s="69" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10429,7 +10438,7 @@
       <c r="P202" s="9"/>
       <c r="Q202" s="9"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17">
       <c r="A203" s="18">
         <v>199</v>
       </c>
@@ -10444,7 +10453,7 @@
       <c r="J203" s="9"/>
       <c r="K203" s="9"/>
       <c r="L203" s="9"/>
-      <c r="M203" s="9" t="str">
+      <c r="M203" s="69" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10453,7 +10462,7 @@
       <c r="P203" s="9"/>
       <c r="Q203" s="9"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17">
       <c r="A204" s="18">
         <v>200</v>
       </c>
@@ -10468,7 +10477,7 @@
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
       <c r="L204" s="9"/>
-      <c r="M204" s="9" t="str">
+      <c r="M204" s="69" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10477,299 +10486,299 @@
       <c r="P204" s="9"/>
       <c r="Q204" s="9"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17">
       <c r="M205" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17">
       <c r="M206" s="18"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17">
       <c r="M207" s="18"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17">
       <c r="M208" s="18"/>
     </row>
-    <row r="209" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="13:13">
       <c r="M209" s="18"/>
     </row>
-    <row r="210" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="13:13">
       <c r="M210" s="18"/>
     </row>
-    <row r="211" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="13:13">
       <c r="M211" s="18"/>
     </row>
-    <row r="212" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="13:13">
       <c r="M212" s="18"/>
     </row>
-    <row r="213" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="13:13">
       <c r="M213" s="18"/>
     </row>
-    <row r="214" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="13:13">
       <c r="M214" s="18"/>
     </row>
-    <row r="215" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="13:13">
       <c r="M215" s="18"/>
     </row>
-    <row r="216" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="13:13">
       <c r="M216" s="18"/>
     </row>
-    <row r="217" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="13:13">
       <c r="M217" s="18"/>
     </row>
-    <row r="218" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="13:13">
       <c r="M218" s="18"/>
     </row>
-    <row r="219" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="13:13">
       <c r="M219" s="18"/>
     </row>
-    <row r="220" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="13:13">
       <c r="M220" s="18"/>
     </row>
-    <row r="221" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="13:13">
       <c r="M221" s="18"/>
     </row>
-    <row r="222" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="13:13">
       <c r="M222" s="18"/>
     </row>
-    <row r="223" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="13:13">
       <c r="M223" s="18"/>
     </row>
-    <row r="224" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="13:13">
       <c r="M224" s="18"/>
     </row>
-    <row r="225" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="13:13">
       <c r="M225" s="18"/>
     </row>
-    <row r="226" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="13:13">
       <c r="M226" s="18"/>
     </row>
-    <row r="227" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="13:13">
       <c r="M227" s="18"/>
     </row>
-    <row r="228" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="13:13">
       <c r="M228" s="18"/>
     </row>
-    <row r="229" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="13:13">
       <c r="M229" s="18"/>
     </row>
-    <row r="230" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="13:13">
       <c r="M230" s="18"/>
     </row>
-    <row r="231" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="13:13">
       <c r="M231" s="18"/>
     </row>
-    <row r="232" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="13:13">
       <c r="M232" s="18"/>
     </row>
-    <row r="233" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="13:13">
       <c r="M233" s="18"/>
     </row>
-    <row r="234" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="13:13">
       <c r="M234" s="18"/>
     </row>
-    <row r="235" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="13:13">
       <c r="M235" s="18"/>
     </row>
-    <row r="236" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="13:13">
       <c r="M236" s="18"/>
     </row>
-    <row r="237" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="13:13">
       <c r="M237" s="18"/>
     </row>
-    <row r="238" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="13:13">
       <c r="M238" s="18"/>
     </row>
-    <row r="239" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="13:13">
       <c r="M239" s="18"/>
     </row>
-    <row r="240" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="13:13">
       <c r="M240" s="18"/>
     </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="13:13">
       <c r="M241" s="18"/>
     </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="13:13">
       <c r="M242" s="18"/>
     </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="13:13">
       <c r="M243" s="18"/>
     </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="13:13">
       <c r="M244" s="18"/>
     </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="13:13">
       <c r="M245" s="18"/>
     </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="13:13">
       <c r="M246" s="18"/>
     </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="13:13">
       <c r="M247" s="18"/>
     </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="13:13">
       <c r="M248" s="18"/>
     </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="13:13">
       <c r="M249" s="18"/>
     </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="13:13">
       <c r="M250" s="18"/>
     </row>
-    <row r="251" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="13:13">
       <c r="M251" s="18"/>
     </row>
-    <row r="252" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="13:13">
       <c r="M252" s="18"/>
     </row>
-    <row r="253" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="13:13">
       <c r="M253" s="18"/>
     </row>
-    <row r="254" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="13:13">
       <c r="M254" s="18"/>
     </row>
-    <row r="255" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="13:13">
       <c r="M255" s="18"/>
     </row>
-    <row r="256" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="13:13">
       <c r="M256" s="18"/>
     </row>
-    <row r="257" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="13:13">
       <c r="M257" s="18"/>
     </row>
-    <row r="258" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="13:13">
       <c r="M258" s="18"/>
     </row>
-    <row r="259" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="13:13">
       <c r="M259" s="18"/>
     </row>
-    <row r="260" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="13:13">
       <c r="M260" s="18"/>
     </row>
-    <row r="261" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="13:13">
       <c r="M261" s="18"/>
     </row>
-    <row r="262" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="13:13">
       <c r="M262" s="18"/>
     </row>
-    <row r="263" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="13:13">
       <c r="M263" s="18"/>
     </row>
-    <row r="264" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="13:13">
       <c r="M264" s="18"/>
     </row>
-    <row r="265" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="13:13">
       <c r="M265" s="18"/>
     </row>
-    <row r="266" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="13:13">
       <c r="M266" s="18"/>
     </row>
-    <row r="267" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="13:13">
       <c r="M267" s="18"/>
     </row>
-    <row r="268" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="13:13">
       <c r="M268" s="18"/>
     </row>
-    <row r="269" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="13:13">
       <c r="M269" s="18"/>
     </row>
-    <row r="270" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="13:13">
       <c r="M270" s="18"/>
     </row>
-    <row r="271" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="13:13">
       <c r="M271" s="18"/>
     </row>
-    <row r="272" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="13:13">
       <c r="M272" s="18"/>
     </row>
-    <row r="273" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="13:13">
       <c r="M273" s="18"/>
     </row>
-    <row r="274" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="13:13">
       <c r="M274" s="18"/>
     </row>
-    <row r="275" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="13:13">
       <c r="M275" s="18"/>
     </row>
-    <row r="276" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="13:13">
       <c r="M276" s="18"/>
     </row>
-    <row r="277" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="13:13">
       <c r="M277" s="18"/>
     </row>
-    <row r="278" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="13:13">
       <c r="M278" s="18"/>
     </row>
-    <row r="279" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="13:13">
       <c r="M279" s="18"/>
     </row>
-    <row r="280" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="13:13">
       <c r="M280" s="18"/>
     </row>
-    <row r="281" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="13:13">
       <c r="M281" s="18"/>
     </row>
-    <row r="282" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="13:13">
       <c r="M282" s="18"/>
     </row>
-    <row r="283" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="13:13">
       <c r="M283" s="18"/>
     </row>
-    <row r="284" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="13:13">
       <c r="M284" s="18"/>
     </row>
-    <row r="285" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="13:13">
       <c r="M285" s="18"/>
     </row>
-    <row r="286" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="13:13">
       <c r="M286" s="18"/>
     </row>
-    <row r="287" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="13:13">
       <c r="M287" s="18"/>
     </row>
-    <row r="288" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="13:13">
       <c r="M288" s="18"/>
     </row>
-    <row r="289" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="13:13">
       <c r="M289" s="18"/>
     </row>
-    <row r="290" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="13:13">
       <c r="M290" s="18"/>
     </row>
-    <row r="291" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="13:13">
       <c r="M291" s="18"/>
     </row>
-    <row r="292" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="13:13">
       <c r="M292" s="18"/>
     </row>
-    <row r="293" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="13:13">
       <c r="M293" s="18"/>
     </row>
-    <row r="294" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="13:13">
       <c r="M294" s="18"/>
     </row>
-    <row r="295" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="13:13">
       <c r="M295" s="18"/>
     </row>
-    <row r="296" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="13:13">
       <c r="M296" s="18"/>
     </row>
-    <row r="297" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="13:13">
       <c r="M297" s="18"/>
     </row>
-    <row r="298" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="13:13">
       <c r="M298" s="18"/>
     </row>
-    <row r="299" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="13:13">
       <c r="M299" s="18"/>
     </row>
-    <row r="300" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="13:13">
       <c r="M300" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j9UVuntUFmTOyzfkhEosCnN0b2HnmRu3KtFrMvAZBXOJXeOrP5IzSklnYuRgIF8tN5KhQtbhjdkBYTgQWR02Jg==" saltValue="yDAF3Rj9CR6BOIZ6+lTg6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DVWgaOgjkRbUcvaVpcRrdB1gcfKX4YUKAPh/8+rhTFiyrH5Hav1d+Flxbeb6PKnX2zBneaTumEal4ezHjNkMhw==" saltValue="7tgx/mymMNNG7M6iM4CmJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B3:Q3" xr:uid="{26203ED7-BAC1-1740-B921-8EB0DA06D0AF}"/>
   <mergeCells count="1">
     <mergeCell ref="N4:P4"/>
@@ -10839,20 +10848,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.296875" customWidth="1"/>
+    <col min="2" max="2" width="30.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="11" customFormat="1" ht="30" customHeight="1">
       <c r="B1" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="18" customHeight="1"/>
+    <row r="3" spans="1:3">
       <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
@@ -10860,7 +10869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -10871,1400 +10880,1400 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="18">
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="18">
         <v>2</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="18">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="18">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="18">
         <v>5</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="18">
         <v>6</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="18">
         <v>7</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="18">
         <v>8</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="18">
         <v>9</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="18">
         <v>10</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="18">
         <v>11</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="18">
         <v>12</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="18">
         <v>13</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="18">
         <v>14</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="18">
         <v>15</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="18">
         <v>16</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="18">
         <v>17</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="18">
         <v>18</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="18">
         <v>19</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="18">
         <v>20</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="18">
         <v>21</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="18">
         <v>22</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="18">
         <v>23</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="18">
         <v>24</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="18">
         <v>25</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="18">
         <v>26</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="18">
         <v>27</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="18">
         <v>28</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="18">
         <v>29</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="18">
         <v>30</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="18">
         <v>31</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="18">
         <v>32</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="18">
         <v>33</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="18">
         <v>34</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="18">
         <v>35</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="18">
         <v>36</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="18">
         <v>37</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="18">
         <v>38</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="18">
         <v>39</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="18">
         <v>40</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="18">
         <v>41</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="18">
         <v>42</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="18">
         <v>43</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="18">
         <v>44</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="18">
         <v>45</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="18">
         <v>46</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="18">
         <v>47</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="18">
         <v>48</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="18">
         <v>49</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="18">
         <v>50</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="18">
         <v>51</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="18">
         <v>52</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="18">
         <v>53</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="18">
         <v>54</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="18">
         <v>55</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="18">
         <v>56</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="18">
         <v>57</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="18">
         <v>58</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="18">
         <v>59</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="18">
         <v>60</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="18">
         <v>61</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="18">
         <v>62</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="18">
         <v>63</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="18">
         <v>64</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="18">
         <v>65</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="18">
         <v>66</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="18">
         <v>67</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="18">
         <v>68</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="18">
         <v>69</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="18">
         <v>70</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="18">
         <v>71</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="18">
         <v>72</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="18">
         <v>73</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="18">
         <v>74</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="18">
         <v>75</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="18">
         <v>76</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="18">
         <v>77</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="18">
         <v>78</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="18">
         <v>79</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="18">
         <v>80</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="18">
         <v>81</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="18">
         <v>82</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="18">
         <v>83</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="18">
         <v>84</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="18">
         <v>85</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="18">
         <v>86</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="18">
         <v>87</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="18">
         <v>88</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="18">
         <v>89</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="18">
         <v>90</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="18">
         <v>91</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="18">
         <v>92</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="18">
         <v>93</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="18">
         <v>94</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="18">
         <v>95</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="18">
         <v>96</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="18">
         <v>97</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="18">
         <v>98</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="18">
         <v>99</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="18">
         <v>100</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="18">
         <v>101</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="18">
         <v>102</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="18">
         <v>103</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="18">
         <v>104</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="18">
         <v>105</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="18">
         <v>106</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="18">
         <v>107</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="18">
         <v>108</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="18">
         <v>109</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="18">
         <v>110</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="18">
         <v>111</v>
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="18">
         <v>112</v>
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="18">
         <v>113</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="18">
         <v>114</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="18">
         <v>115</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="18">
         <v>116</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="18">
         <v>117</v>
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="18">
         <v>118</v>
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="18">
         <v>119</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="18">
         <v>120</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="18">
         <v>121</v>
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="18">
         <v>122</v>
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="18">
         <v>123</v>
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="18">
         <v>124</v>
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="18">
         <v>125</v>
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="18">
         <v>126</v>
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="18">
         <v>127</v>
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="18">
         <v>128</v>
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="18">
         <v>129</v>
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="18">
         <v>130</v>
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="18">
         <v>131</v>
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="18">
         <v>132</v>
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="18">
         <v>133</v>
       </c>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="18">
         <v>134</v>
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="18">
         <v>135</v>
       </c>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="18">
         <v>136</v>
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="18">
         <v>137</v>
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="18">
         <v>138</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="18">
         <v>139</v>
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="18">
         <v>140</v>
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="18">
         <v>141</v>
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="18">
         <v>142</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="18">
         <v>143</v>
       </c>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="18">
         <v>144</v>
       </c>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="18">
         <v>145</v>
       </c>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="18">
         <v>146</v>
       </c>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="18">
         <v>147</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="18">
         <v>148</v>
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="18">
         <v>149</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="18">
         <v>150</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="18">
         <v>151</v>
       </c>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="18">
         <v>152</v>
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="18">
         <v>153</v>
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="18">
         <v>154</v>
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="18">
         <v>155</v>
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="18">
         <v>156</v>
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="18">
         <v>157</v>
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="18">
         <v>158</v>
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="18">
         <v>159</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="18">
         <v>160</v>
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="18">
         <v>161</v>
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="18">
         <v>162</v>
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="18">
         <v>163</v>
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="18">
         <v>164</v>
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="18">
         <v>165</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="18">
         <v>166</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="18">
         <v>167</v>
       </c>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="18">
         <v>168</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="18">
         <v>169</v>
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="18">
         <v>170</v>
       </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" s="18">
         <v>171</v>
       </c>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="18">
         <v>172</v>
       </c>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="18">
         <v>173</v>
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="18">
         <v>174</v>
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="18">
         <v>175</v>
       </c>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="18">
         <v>176</v>
       </c>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="18">
         <v>177</v>
       </c>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="18">
         <v>178</v>
       </c>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="18">
         <v>179</v>
       </c>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="18">
         <v>180</v>
       </c>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="18">
         <v>181</v>
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="18">
         <v>182</v>
       </c>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="18">
         <v>183</v>
       </c>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="18">
         <v>184</v>
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="18">
         <v>185</v>
       </c>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="18">
         <v>186</v>
       </c>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="18">
         <v>187</v>
       </c>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="18">
         <v>188</v>
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="18">
         <v>189</v>
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="18">
         <v>190</v>
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="18">
         <v>191</v>
       </c>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="18">
         <v>192</v>
       </c>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="18">
         <v>193</v>
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="18">
         <v>194</v>
       </c>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="18">
         <v>195</v>
       </c>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="18">
         <v>196</v>
       </c>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="18">
         <v>197</v>
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="18">
         <v>198</v>
       </c>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="18">
         <v>199</v>
       </c>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="18">
         <v>200</v>
       </c>
@@ -12288,12 +12297,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -12301,7 +12310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -12309,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -12317,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
